--- a/pred_ohlcv/54_21/2019-10-24 ETC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-24 ETC ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-20201.0793</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-20797.9419</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-20637.6585</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-20200.3313</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-20840.287</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>-20537.07301608399</v>
       </c>
       <c r="H109">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>-24103.50301608399</v>
       </c>
       <c r="H110">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>-20949.56571608399</v>
       </c>
       <c r="H118">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>-20364.17281608399</v>
       </c>
       <c r="H120">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>-19740.58749397364</v>
       </c>
       <c r="H160">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>-19740.58749397364</v>
       </c>
       <c r="H161">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>-19719.24429397364</v>
       </c>
       <c r="H162">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>-19690.22739397364</v>
       </c>
       <c r="H163">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>-19792.02739397364</v>
       </c>
       <c r="H164">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>-19688.72739397364</v>
       </c>
       <c r="H165">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>-19677.42009397364</v>
       </c>
       <c r="H166">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>-19693.42009397364</v>
       </c>
       <c r="H167">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>-18021.58359397364</v>
       </c>
       <c r="H168">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>-18021.58359397364</v>
       </c>
       <c r="H169">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>-18021.58359397364</v>
       </c>
       <c r="H170">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>-17795.98059397364</v>
       </c>
       <c r="H171">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>-17807.98059397364</v>
       </c>
       <c r="H172">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>-17815.19379397364</v>
       </c>
       <c r="H173">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>-17613.54899397364</v>
       </c>
       <c r="H174">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>-17611.90419397364</v>
       </c>
       <c r="H175">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>-17611.90419397364</v>
       </c>
       <c r="H176">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>-17611.90419397364</v>
       </c>
       <c r="H177">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>-18110.11889397364</v>
       </c>
       <c r="H178">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>-18061.67489397364</v>
       </c>
       <c r="H179">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>-17995.92129397364</v>
       </c>
       <c r="H180">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>-17895.92129397364</v>
       </c>
       <c r="H181">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>-17895.92129397364</v>
       </c>
       <c r="H182">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>-17786.64929397364</v>
       </c>
       <c r="H183">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>-17806.89059397364</v>
       </c>
       <c r="H184">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>-17906.64059397364</v>
       </c>
       <c r="H185">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>-17886.17409397364</v>
       </c>
       <c r="H186">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>-17878.49089397365</v>
       </c>
       <c r="H187">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>-17871.19189397365</v>
       </c>
       <c r="H188">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>-17570.89279397365</v>
       </c>
       <c r="H189">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>-17516.68469397365</v>
       </c>
       <c r="H190">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>-17607.76469397365</v>
       </c>
       <c r="H191">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>-17607.76469397365</v>
       </c>
       <c r="H192">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>-17611.96749397365</v>
       </c>
       <c r="H193">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>-17711.71749397365</v>
       </c>
       <c r="H194">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>-17855.53219397365</v>
       </c>
       <c r="H195">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>-17893.16679397365</v>
       </c>
       <c r="H196">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>-17793.96679397365</v>
       </c>
       <c r="H197">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>-17889.48669397365</v>
       </c>
       <c r="H198">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>-17889.48669397365</v>
       </c>
       <c r="H199">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>-17751.66949397365</v>
       </c>
       <c r="H203">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>-17717.23279397365</v>
       </c>
       <c r="H204">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>-17538.99169397365</v>
       </c>
       <c r="H205">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>-17589.11815698462</v>
       </c>
       <c r="H206">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>-17609.41015698462</v>
       </c>
       <c r="H207">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>-17609.41015698462</v>
       </c>
       <c r="H208">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>-18952.45465698461</v>
       </c>
       <c r="H213">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>-19114.10255698461</v>
       </c>
       <c r="H214">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>-19114.10255698461</v>
       </c>
       <c r="H215">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>-18382.0866569846</v>
       </c>
       <c r="H248">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>-18437.9409569846</v>
       </c>
       <c r="H249">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>-25455.29479175413</v>
       </c>
       <c r="H297">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>-25500.78119175413</v>
       </c>
       <c r="H298">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>-25500.78119175413</v>
       </c>
       <c r="H299">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>-25384.87329175413</v>
       </c>
       <c r="H300">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>-25384.87329175413</v>
       </c>
       <c r="H301">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>-25368.02249175413</v>
       </c>
       <c r="H302">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>-25373.12319175413</v>
       </c>
       <c r="H303">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>-25191.05249175413</v>
       </c>
       <c r="H304">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8322,7 +8322,7 @@
         <v>-25392.12289175413</v>
       </c>
       <c r="H305">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -9050,7 +9050,7 @@
         <v>-26338.35359185403</v>
       </c>
       <c r="H333">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -9102,7 +9102,7 @@
         <v>-26444.44479185403</v>
       </c>
       <c r="H335">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -9180,7 +9180,7 @@
         <v>-26898.07829185404</v>
       </c>
       <c r="H338">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -9206,7 +9206,7 @@
         <v>-26902.37829185403</v>
       </c>
       <c r="H339">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -9232,7 +9232,7 @@
         <v>-26897.87459185403</v>
       </c>
       <c r="H340">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -9258,7 +9258,7 @@
         <v>-26833.96459185403</v>
       </c>
       <c r="H341">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -9284,7 +9284,7 @@
         <v>-26853.96459185403</v>
       </c>
       <c r="H342">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -9310,7 +9310,7 @@
         <v>-26961.33779185404</v>
       </c>
       <c r="H343">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -9414,7 +9414,7 @@
         <v>-26177.59349185403</v>
       </c>
       <c r="H347">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -9440,7 +9440,7 @@
         <v>-26175.92359185403</v>
       </c>
       <c r="H348">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -9466,7 +9466,7 @@
         <v>-26153.80869185403</v>
       </c>
       <c r="H349">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -9492,7 +9492,7 @@
         <v>-26605.16919185403</v>
       </c>
       <c r="H350">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2019-10-24 ETC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-24 ETC ohlcv.xlsx
@@ -2160,7 +2160,7 @@
         <v>-19073.77139823034</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>-19078.79139823034</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>-19098.29909823034</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-19097.29909823034</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>-19099.05499823034</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>-19098.55489752541</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>-19098.55489752541</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>-19098.55489752541</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>-19096.55489752541</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>-19099.87659752541</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>-19099.87659752541</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>-18816.94819752541</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>-18747.45189752541</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-18746.95179714396</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>-19007.25939714396</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>-19040.25939714396</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>-19038.32479714396</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-19038.32479714396</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-19039.40349714395</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>-19150.19329714395</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>-19230.91029714395</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>-19249.64099714395</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>-19250.45989714395</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>-19167.81509714395</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>-19578.63359714395</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-19930.54329714395</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-20039.95599714396</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-20475.13521608399</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>-22274.79131608399</v>
       </c>
       <c r="H111">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>-23690.05621608399</v>
       </c>
       <c r="H112">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>-23029.87521608399</v>
       </c>
       <c r="H113">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-20941.69631608399</v>
       </c>
       <c r="H117">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>-20364.17281608399</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>-19049.25441608399</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>-18784.77219397364</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>-18896.67299397364</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>-18893.43429397364</v>
       </c>
       <c r="H150">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>-19004.02089397364</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>-19609.20499397364</v>
       </c>
       <c r="H152">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>-19740.58749397364</v>
       </c>
       <c r="H160">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>-19740.58749397364</v>
       </c>
       <c r="H161">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>-19719.24429397364</v>
       </c>
       <c r="H162">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>-17819.28029397365</v>
       </c>
       <c r="H200">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>-17769.28029397365</v>
       </c>
       <c r="H201">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>-17768.96399397365</v>
       </c>
       <c r="H202">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>-17659.28515698462</v>
       </c>
       <c r="H209">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>-18259.55965698462</v>
       </c>
       <c r="H210">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>-18217.08505698462</v>
       </c>
       <c r="H211">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>-19052.45465698461</v>
       </c>
       <c r="H212">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>-18968.10255698461</v>
       </c>
       <c r="H216">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>-18857.92835698461</v>
       </c>
       <c r="H217">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>-19208.61525698461</v>
       </c>
       <c r="H218">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>-19208.61525698461</v>
       </c>
       <c r="H219">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>-19305.65645698461</v>
       </c>
       <c r="H220">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>-19354.74445698461</v>
       </c>
       <c r="H221">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>-19356.36475698461</v>
       </c>
       <c r="H222">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>-19354.36045698461</v>
       </c>
       <c r="H223">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>-19404.17135698461</v>
       </c>
       <c r="H224">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>-19408.49225698461</v>
       </c>
       <c r="H225">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>-19248.04225698461</v>
       </c>
       <c r="H226">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>-19411.31925698461</v>
       </c>
       <c r="H227">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>-19421.00575698461</v>
       </c>
       <c r="H228">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>-19401.00575698461</v>
       </c>
       <c r="H229">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>-19403.00575698461</v>
       </c>
       <c r="H230">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>-19400.18645698461</v>
       </c>
       <c r="H231">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>-19299.32285698461</v>
       </c>
       <c r="H232">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>-19300.32285698461</v>
       </c>
       <c r="H233">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>-19167.41095698461</v>
       </c>
       <c r="H234">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>-18867.11185698461</v>
       </c>
       <c r="H235">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>-18561.84475698461</v>
       </c>
       <c r="H236">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>-18573.78495698461</v>
       </c>
       <c r="H237">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>-18406.35355698461</v>
       </c>
       <c r="H238">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>-18415.7735569846</v>
       </c>
       <c r="H239">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>-18489.42095698461</v>
       </c>
       <c r="H240">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>-18595.42095698461</v>
       </c>
       <c r="H241">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>-18592.4175569846</v>
       </c>
       <c r="H242">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>-18483.3393569846</v>
       </c>
       <c r="H243">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>-18484.1667569846</v>
       </c>
       <c r="H244">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>-18484.1667569846</v>
       </c>
       <c r="H245">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>-18282.1866569846</v>
       </c>
       <c r="H246">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>-18282.0866569846</v>
       </c>
       <c r="H247">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>-18382.0866569846</v>
       </c>
       <c r="H248">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>-18437.9409569846</v>
       </c>
       <c r="H249">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>-18437.9409569846</v>
       </c>
       <c r="H250">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>-18439.9409569846</v>
       </c>
       <c r="H251">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>-18468.7593569846</v>
       </c>
       <c r="H252">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>-18509.5604569846</v>
       </c>
       <c r="H253">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>-18408.9016569846</v>
       </c>
       <c r="H254">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>-18511.7470569846</v>
       </c>
       <c r="H255">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>-18511.7470569846</v>
       </c>
       <c r="H256">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>-19176.3661569846</v>
       </c>
       <c r="H257">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>-19678.9847569846</v>
       </c>
       <c r="H258">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>-20025.0641569846</v>
       </c>
       <c r="H259">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>-19815.70584084914</v>
       </c>
       <c r="H260">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>-20116.00494084914</v>
       </c>
       <c r="H261">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>-20116.00494084914</v>
       </c>
       <c r="H262">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>-20116.00494084914</v>
       </c>
       <c r="H263">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>-20653.97174084914</v>
       </c>
       <c r="H264">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>-20653.97174084914</v>
       </c>
       <c r="H265">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>-20653.97174084914</v>
       </c>
       <c r="H266">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>-20422.88294084914</v>
       </c>
       <c r="H267">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>-20463.09504084914</v>
       </c>
       <c r="H268">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>-20463.09504084914</v>
       </c>
       <c r="H269">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>-20567.84504084914</v>
       </c>
       <c r="H270">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>-20565.64468072104</v>
       </c>
       <c r="H271">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>-20567.11988072104</v>
       </c>
       <c r="H272">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>-20567.11988072104</v>
       </c>
       <c r="H273">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>-20556.11988072104</v>
       </c>
       <c r="H274">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7542,7 +7542,7 @@
         <v>-20569.57108072104</v>
       </c>
       <c r="H275">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>-20569.57108072104</v>
       </c>
       <c r="H276">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>-21720.90288072104</v>
       </c>
       <c r="H277">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>-21387.54838072104</v>
       </c>
       <c r="H278">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>-21369.51848072104</v>
       </c>
       <c r="H279">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>-22265.34898072104</v>
       </c>
       <c r="H280">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -7698,7 +7698,7 @@
         <v>-22231.12978072104</v>
       </c>
       <c r="H281">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -7724,7 +7724,7 @@
         <v>-22225.43748072104</v>
       </c>
       <c r="H282">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -7750,7 +7750,7 @@
         <v>-22225.43748072104</v>
       </c>
       <c r="H283">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>-22381.08938072104</v>
       </c>
       <c r="H284">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>-22310.95938072104</v>
       </c>
       <c r="H285">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -7828,7 +7828,7 @@
         <v>-22858.97208072104</v>
       </c>
       <c r="H286">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>-25455.29479175413</v>
       </c>
       <c r="H297">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>-25500.78119175413</v>
       </c>
       <c r="H298">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>-25500.78119175413</v>
       </c>
       <c r="H299">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>-25384.87329175413</v>
       </c>
       <c r="H300">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>-25384.87329175413</v>
       </c>
       <c r="H301">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>-25368.02249175413</v>
       </c>
       <c r="H302">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>-25373.12319175413</v>
       </c>
       <c r="H303">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>-25191.05249175413</v>
       </c>
       <c r="H304">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8322,7 +8322,7 @@
         <v>-25392.12289175413</v>
       </c>
       <c r="H305">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -8426,7 +8426,7 @@
         <v>-25249.19319175413</v>
       </c>
       <c r="H309">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -8764,7 +8764,7 @@
         <v>-25554.04319185403</v>
       </c>
       <c r="H322">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -8790,7 +8790,7 @@
         <v>-25562.54049185403</v>
       </c>
       <c r="H323">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -8816,7 +8816,7 @@
         <v>-25562.54049185403</v>
       </c>
       <c r="H324">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -8868,7 +8868,7 @@
         <v>-25565.23329185403</v>
       </c>
       <c r="H326">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -8894,7 +8894,7 @@
         <v>-25571.37989185403</v>
       </c>
       <c r="H327">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -8920,7 +8920,7 @@
         <v>-25545.88889185403</v>
       </c>
       <c r="H328">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -8946,7 +8946,7 @@
         <v>-25538.07889185403</v>
       </c>
       <c r="H329">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -8972,7 +8972,7 @@
         <v>-26221.07139185403</v>
       </c>
       <c r="H330">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -8998,7 +8998,7 @@
         <v>-26283.29079185403</v>
       </c>
       <c r="H331">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -9024,7 +9024,7 @@
         <v>-26435.95359185403</v>
       </c>
       <c r="H332">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -9076,7 +9076,7 @@
         <v>-26435.95349185403</v>
       </c>
       <c r="H334">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -9102,7 +9102,7 @@
         <v>-26444.44479185403</v>
       </c>
       <c r="H335">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -9128,7 +9128,7 @@
         <v>-26651.05359185403</v>
       </c>
       <c r="H336">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -9154,7 +9154,7 @@
         <v>-26868.14039185403</v>
       </c>
       <c r="H337">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -9180,7 +9180,7 @@
         <v>-26898.07829185404</v>
       </c>
       <c r="H338">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -9206,7 +9206,7 @@
         <v>-26902.37829185403</v>
       </c>
       <c r="H339">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -9232,7 +9232,7 @@
         <v>-26897.87459185403</v>
       </c>
       <c r="H340">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -9258,7 +9258,7 @@
         <v>-26833.96459185403</v>
       </c>
       <c r="H341">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -9284,7 +9284,7 @@
         <v>-26853.96459185403</v>
       </c>
       <c r="H342">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -9310,7 +9310,7 @@
         <v>-26961.33779185404</v>
       </c>
       <c r="H343">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="344" spans="1:8">
